--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(80-84) - (90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(80-84) - (90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -662,7 +662,7 @@
         <v>2020</v>
       </c>
       <c r="D3" t="n">
-        <v>38637</v>
+        <v>38640</v>
       </c>
       <c r="E3" t="n">
         <v>30146</v>
@@ -698,7 +698,7 @@
         <v>30842.00000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>8239.200000000001</v>
+        <v>8242.200000000001</v>
       </c>
       <c r="Q3" t="n">
         <v>444.2</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>8239.2 (±444.2)</t>
+          <t>8242.2 (±444.2)</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -728,14 +728,14 @@
         <v>408179</v>
       </c>
       <c r="X3" t="n">
-        <v>2018.5</v>
+        <v>2019.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2018.5(±108.9)</t>
+          <t>2019.3(±108.8)</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="D4" t="n">
-        <v>25535</v>
+        <v>25542</v>
       </c>
       <c r="E4" t="n">
         <v>23458</v>
@@ -790,7 +790,7 @@
         <v>23352.7</v>
       </c>
       <c r="P4" t="n">
-        <v>2634.4</v>
+        <v>2641.4</v>
       </c>
       <c r="Q4" t="n">
         <v>452.1</v>
@@ -799,7 +799,7 @@
         <v>11.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -808,26 +808,26 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2634.4 (±452.1)</t>
+          <t>2641.4 (±452.1)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>11.5% (±2.2%)</t>
+          <t>11.5% (±2.1%)</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>220815</v>
       </c>
       <c r="X4" t="n">
-        <v>1193</v>
+        <v>1196.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.8</v>
+        <v>204.7</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1193.0(±204.8)</t>
+          <t>1196.2(±204.7)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>2020</v>
       </c>
       <c r="D5" t="n">
-        <v>15447</v>
+        <v>15450</v>
       </c>
       <c r="E5" t="n">
         <v>13396</v>
@@ -882,7 +882,7 @@
         <v>13572.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="Q5" t="n">
         <v>135.2</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2010.0 (±135.2)</t>
+          <t>2013.0 (±135.2)</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -912,14 +912,14 @@
         <v>146221</v>
       </c>
       <c r="X5" t="n">
-        <v>1374.6</v>
+        <v>1376.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>92.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1374.6(±92.5)</t>
+          <t>1376.7(±92.4)</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>2020</v>
       </c>
       <c r="D8" t="n">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="E8" t="n">
         <v>3984</v>
@@ -1158,7 +1158,7 @@
         <v>4271</v>
       </c>
       <c r="P8" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q8" t="n">
         <v>87</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>451.0 (±87.0)</t>
+          <t>452.0 (±87.0)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1188,14 +1188,14 @@
         <v>55600</v>
       </c>
       <c r="X8" t="n">
-        <v>811.2</v>
+        <v>812.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>156.4</v>
+        <v>156.5</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>811.2(±156.4)</t>
+          <t>812.9(±156.5)</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>2020</v>
       </c>
       <c r="D10" t="n">
-        <v>201700</v>
+        <v>201720</v>
       </c>
       <c r="E10" t="n">
         <v>169422</v>
@@ -1342,7 +1342,7 @@
         <v>176410.7</v>
       </c>
       <c r="P10" t="n">
-        <v>26958.6</v>
+        <v>26978.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1669.3</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>26958.6 (±1669.3)</t>
+          <t>26978.6 (±1669.3)</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1372,14 +1372,14 @@
         <v>2595337</v>
       </c>
       <c r="X10" t="n">
-        <v>1038.7</v>
+        <v>1039.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1038.7(±64.4)</t>
+          <t>1039.5(±64.3)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>11518</v>
+        <v>11633</v>
       </c>
       <c r="E15" t="n">
         <v>10312</v>
@@ -1802,16 +1802,16 @@
         <v>10326.2</v>
       </c>
       <c r="P15" t="n">
-        <v>1396</v>
+        <v>1511</v>
       </c>
       <c r="Q15" t="n">
         <v>204.2</v>
       </c>
       <c r="R15" t="n">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="S15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1820,26 +1820,26 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1396.0 (±204.2)</t>
+          <t>1511.0 (±204.2)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>13.8% (±2.3%)</t>
+          <t>14.9% (±2.2%)</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>117985</v>
       </c>
       <c r="X15" t="n">
-        <v>1183.2</v>
+        <v>1280.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>173.1</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>1183.2(±173.1)</t>
+          <t>1280.7(±173.0)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>1436</v>
+        <v>1457</v>
       </c>
       <c r="E18" t="n">
         <v>1196</v>
@@ -2078,13 +2078,13 @@
         <v>1288.5</v>
       </c>
       <c r="P18" t="n">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q18" t="n">
         <v>46.5</v>
       </c>
       <c r="R18" t="n">
-        <v>15.6</v>
+        <v>17.3</v>
       </c>
       <c r="S18" t="n">
         <v>4.2</v>
@@ -2096,26 +2096,26 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>194.0 (±46.5)</t>
+          <t>215.0 (±46.5)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>15.6% (±4.2%)</t>
+          <t>17.3% (±4.2%)</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>12166</v>
       </c>
       <c r="X18" t="n">
-        <v>1594.6</v>
+        <v>1767.2</v>
       </c>
       <c r="Y18" t="n">
         <v>382.2</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1594.6(±382.2)</t>
+          <t>1767.2(±382.2)</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>36549</v>
+        <v>36588</v>
       </c>
       <c r="E22" t="n">
         <v>28543</v>
@@ -2446,13 +2446,13 @@
         <v>30958.60000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>6297.6</v>
+        <v>6336.6</v>
       </c>
       <c r="Q22" t="n">
         <v>707.2</v>
       </c>
       <c r="R22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="S22" t="n">
         <v>2.7</v>
@@ -2464,26 +2464,26 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>6297.6 (±707.2)</t>
+          <t>6336.6 (±707.2)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>20.8% (±2.7%)</t>
+          <t>20.9% (±2.7%)</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>424571</v>
       </c>
       <c r="X22" t="n">
-        <v>1483.3</v>
+        <v>1492.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.6</v>
+        <v>166.5</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>1483.3(±166.6)</t>
+          <t>1492.5(±166.5)</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>12821</v>
+        <v>12830</v>
       </c>
       <c r="E24" t="n">
         <v>11388</v>
@@ -2630,13 +2630,13 @@
         <v>11532.1</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.2</v>
+        <v>1497.2</v>
       </c>
       <c r="Q24" t="n">
         <v>199.3</v>
       </c>
       <c r="R24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S24" t="n">
         <v>1.9</v>
@@ -2648,26 +2648,26 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1488.2 (±199.3)</t>
+          <t>1497.2 (±199.3)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>13.1% (±1.9%)</t>
+          <t>13.2% (±1.9%)</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>124794</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.5</v>
+        <v>1199.7</v>
       </c>
       <c r="Y24" t="n">
         <v>159.7</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>1192.5(±159.7)</t>
+          <t>1199.7(±159.7)</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
         <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>26747</v>
+        <v>26749</v>
       </c>
       <c r="E29" t="n">
         <v>19845</v>
@@ -3090,7 +3090,7 @@
         <v>20838.89999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>6197.4</v>
+        <v>6199.4</v>
       </c>
       <c r="Q29" t="n">
         <v>289.3</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>6197.4 (±289.3)</t>
+          <t>6199.4 (±289.3)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -3120,14 +3120,14 @@
         <v>238790</v>
       </c>
       <c r="X29" t="n">
-        <v>2595.3</v>
+        <v>2596.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2595.3(±121.2)</t>
+          <t>2596.2(±121.1)</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>9099</v>
+        <v>9093</v>
       </c>
       <c r="E31" t="n">
         <v>7307</v>
@@ -3274,13 +3274,13 @@
         <v>7596.5</v>
       </c>
       <c r="P31" t="n">
-        <v>1614.2</v>
+        <v>1608.2</v>
       </c>
       <c r="Q31" t="n">
         <v>111.7</v>
       </c>
       <c r="R31" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="S31" t="n">
         <v>1.8</v>
@@ -3292,26 +3292,26 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>1614.2 (±111.7)</t>
+          <t>1608.2 (±111.7)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>21.6% (±1.8%)</t>
+          <t>21.5% (±1.8%)</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>71412</v>
       </c>
       <c r="X31" t="n">
-        <v>2260.4</v>
+        <v>2252</v>
       </c>
       <c r="Y31" t="n">
         <v>156.4</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2260.4(±156.4)</t>
+          <t>2252.0(±156.4)</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>140507</v>
+        <v>140519</v>
       </c>
       <c r="E36" t="n">
         <v>114687</v>
@@ -3734,7 +3734,7 @@
         <v>119785.2</v>
       </c>
       <c r="P36" t="n">
-        <v>21956.4</v>
+        <v>21968.4</v>
       </c>
       <c r="Q36" t="n">
         <v>1234.6</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21956.4 (±1234.6)</t>
+          <t>21968.4 (±1234.6)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3764,14 +3764,14 @@
         <v>1437067</v>
       </c>
       <c r="X36" t="n">
-        <v>1527.9</v>
+        <v>1528.7</v>
       </c>
       <c r="Y36" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>1527.9(±85.9)</t>
+          <t>1528.7(±85.9)</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
         <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>5437</v>
+        <v>5482</v>
       </c>
       <c r="E41" t="n">
         <v>4553</v>
@@ -4194,13 +4194,13 @@
         <v>4642.8</v>
       </c>
       <c r="P41" t="n">
-        <v>834.4</v>
+        <v>879.4</v>
       </c>
       <c r="Q41" t="n">
         <v>40.2</v>
       </c>
       <c r="R41" t="n">
-        <v>18.1</v>
+        <v>19.1</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -4212,26 +4212,26 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>834.4 (±40.2)</t>
+          <t>879.4 (±40.2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>18.1% (±1.0%)</t>
+          <t>19.1% (±1.0%)</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>43326</v>
       </c>
       <c r="X41" t="n">
-        <v>1925.9</v>
+        <v>2029.7</v>
       </c>
       <c r="Y41" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>1925.9(±92.7)</t>
+          <t>2029.7(±92.8)</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E42" t="n">
         <v>700</v>
@@ -4286,16 +4286,16 @@
         <v>781.2999999999997</v>
       </c>
       <c r="P42" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q42" t="n">
         <v>27.3</v>
       </c>
       <c r="R42" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="S42" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4304,26 +4304,26 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>190.0 (±27.3)</t>
+          <t>188.0 (±27.3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>25.2% (±4.4%)</t>
+          <t>24.9% (±4.3%)</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>9006</v>
       </c>
       <c r="X42" t="n">
-        <v>2109.7</v>
+        <v>2087.5</v>
       </c>
       <c r="Y42" t="n">
         <v>303.1</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2109.7(±303.1)</t>
+          <t>2087.5(±303.1)</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="E44" t="n">
         <v>775</v>
@@ -4470,16 +4470,16 @@
         <v>893.5999999999998</v>
       </c>
       <c r="P44" t="n">
-        <v>221.4</v>
+        <v>239.4</v>
       </c>
       <c r="Q44" t="n">
         <v>35</v>
       </c>
       <c r="R44" t="n">
-        <v>25.8</v>
+        <v>27.9</v>
       </c>
       <c r="S44" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4488,26 +4488,26 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>221.4 (±35.0)</t>
+          <t>239.4 (±35.0)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>25.8% (±4.9%)</t>
+          <t>27.9% (±5.0%)</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>8073</v>
       </c>
       <c r="X44" t="n">
-        <v>2742.5</v>
+        <v>2965.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>433.5</v>
+        <v>433.6</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2742.5(±433.5)</t>
+          <t>2965.4(±433.6)</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
         <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>25122</v>
+        <v>25153</v>
       </c>
       <c r="E48" t="n">
         <v>19167</v>
@@ -4838,16 +4838,16 @@
         <v>21545.7</v>
       </c>
       <c r="P48" t="n">
-        <v>4189.6</v>
+        <v>4220.6</v>
       </c>
       <c r="Q48" t="n">
         <v>613.3</v>
       </c>
       <c r="R48" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="S48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4856,26 +4856,26 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>4189.6 (±613.3)</t>
+          <t>4220.6 (±613.3)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>20.0% (±3.4%)</t>
+          <t>20.2% (±3.5%)</t>
         </is>
       </c>
       <c r="W48" t="n">
         <v>236885</v>
       </c>
       <c r="X48" t="n">
-        <v>1768.6</v>
+        <v>1781.7</v>
       </c>
       <c r="Y48" t="n">
         <v>258.9</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>1768.6(±258.9)</t>
+          <t>1781.7(±258.9)</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>111386</v>
+        <v>111388</v>
       </c>
       <c r="E52" t="n">
         <v>85032</v>
@@ -5206,7 +5206,7 @@
         <v>88120.60000000003</v>
       </c>
       <c r="P52" t="n">
-        <v>23917</v>
+        <v>23919</v>
       </c>
       <c r="Q52" t="n">
         <v>651.6</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23917.0 (±651.6)</t>
+          <t>23919.0 (±651.6)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -5236,14 +5236,14 @@
         <v>1068505</v>
       </c>
       <c r="X52" t="n">
-        <v>2238.4</v>
+        <v>2238.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>60.9</v>
+        <v>61</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2238.4(±60.9)</t>
+          <t>2238.5(±61.0)</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>65384</v>
+        <v>65389</v>
       </c>
       <c r="E55" t="n">
         <v>49991</v>
@@ -5482,7 +5482,7 @@
         <v>51600.89999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>14436.6</v>
+        <v>14441.6</v>
       </c>
       <c r="Q55" t="n">
         <v>653.5</v>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>14436.6 (±653.5)</t>
+          <t>14441.6 (±653.5)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -5512,14 +5512,14 @@
         <v>646969</v>
       </c>
       <c r="X55" t="n">
-        <v>2231.4</v>
+        <v>2232.2</v>
       </c>
       <c r="Y55" t="n">
         <v>101</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2231.4(±101.0)</t>
+          <t>2232.2(±101.0)</t>
         </is>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>42823</v>
+        <v>42830</v>
       </c>
       <c r="E56" t="n">
         <v>38548</v>
@@ -5574,7 +5574,7 @@
         <v>38388.49999999999</v>
       </c>
       <c r="P56" t="n">
-        <v>5191.8</v>
+        <v>5198.8</v>
       </c>
       <c r="Q56" t="n">
         <v>757.3</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>5191.8 (±757.3)</t>
+          <t>5198.8 (±757.3)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -5604,14 +5604,14 @@
         <v>338610</v>
       </c>
       <c r="X56" t="n">
-        <v>1533.3</v>
+        <v>1535.3</v>
       </c>
       <c r="Y56" t="n">
-        <v>223.6</v>
+        <v>223.7</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>1533.3(±223.6)</t>
+          <t>1535.3(±223.7)</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>24546</v>
+        <v>24543</v>
       </c>
       <c r="E57" t="n">
         <v>20703</v>
@@ -5666,7 +5666,7 @@
         <v>21136.5</v>
       </c>
       <c r="P57" t="n">
-        <v>3624.2</v>
+        <v>3621.2</v>
       </c>
       <c r="Q57" t="n">
         <v>214.7</v>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>3624.2 (±214.7)</t>
+          <t>3621.2 (±214.7)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -5696,14 +5696,14 @@
         <v>217633</v>
       </c>
       <c r="X57" t="n">
-        <v>1665.3</v>
+        <v>1663.9</v>
       </c>
       <c r="Y57" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>1665.3(±98.6)</t>
+          <t>1663.9(±98.7)</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>6691</v>
+        <v>6692</v>
       </c>
       <c r="E60" t="n">
         <v>5628</v>
@@ -5942,7 +5942,7 @@
         <v>6119.999999999998</v>
       </c>
       <c r="P60" t="n">
-        <v>719.8</v>
+        <v>720.8</v>
       </c>
       <c r="Q60" t="n">
         <v>148.8</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>719.8 (±148.8)</t>
+          <t>720.8 (±148.8)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -5972,14 +5972,14 @@
         <v>74717</v>
       </c>
       <c r="X60" t="n">
-        <v>963.4</v>
+        <v>964.7</v>
       </c>
       <c r="Y60" t="n">
-        <v>199.1</v>
+        <v>199.2</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>963.4(±199.1)</t>
+          <t>964.7(±199.2)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>342207</v>
+        <v>342239</v>
       </c>
       <c r="E62" t="n">
         <v>284109</v>
@@ -6126,7 +6126,7 @@
         <v>296169.5000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>48915</v>
+        <v>48947</v>
       </c>
       <c r="Q62" t="n">
         <v>2877.5</v>
@@ -6135,7 +6135,7 @@
         <v>16.7</v>
       </c>
       <c r="S62" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -6144,26 +6144,26 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>48915.0 (±2877.5)</t>
+          <t>48947.0 (±2877.5)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>16.7% (±1.2%)</t>
+          <t>16.7% (±1.1%)</t>
         </is>
       </c>
       <c r="W62" t="n">
         <v>4032404</v>
       </c>
       <c r="X62" t="n">
-        <v>1213</v>
+        <v>1213.8</v>
       </c>
       <c r="Y62" t="n">
         <v>71.40000000000001</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>1213.0(±71.4)</t>
+          <t>1213.8(±71.4)</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>16955</v>
+        <v>17115</v>
       </c>
       <c r="E67" t="n">
         <v>14865</v>
@@ -6586,16 +6586,16 @@
         <v>14957.8</v>
       </c>
       <c r="P67" t="n">
-        <v>2230.4</v>
+        <v>2390.4</v>
       </c>
       <c r="Q67" t="n">
         <v>233.2</v>
       </c>
       <c r="R67" t="n">
-        <v>15.1</v>
+        <v>16.2</v>
       </c>
       <c r="S67" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6604,26 +6604,26 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2230.4 (±233.2)</t>
+          <t>2390.4 (±233.2)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>15.1% (±1.7%)</t>
+          <t>16.2% (±1.8%)</t>
         </is>
       </c>
       <c r="W67" t="n">
         <v>161311</v>
       </c>
       <c r="X67" t="n">
-        <v>1382.7</v>
+        <v>1481.9</v>
       </c>
       <c r="Y67" t="n">
         <v>144.5</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>1382.7(±144.5)</t>
+          <t>1481.9(±144.5)</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="E68" t="n">
         <v>1719</v>
@@ -6678,13 +6678,13 @@
         <v>1892.5</v>
       </c>
       <c r="P68" t="n">
-        <v>380.8</v>
+        <v>378.8</v>
       </c>
       <c r="Q68" t="n">
         <v>63.3</v>
       </c>
       <c r="R68" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="S68" t="n">
         <v>4</v>
@@ -6696,26 +6696,26 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>380.8 (±63.3)</t>
+          <t>378.8 (±63.3)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>20.8% (±4.0%)</t>
+          <t>20.7% (±4.0%)</t>
         </is>
       </c>
       <c r="W68" t="n">
         <v>24213</v>
       </c>
       <c r="X68" t="n">
-        <v>1572.7</v>
+        <v>1564.4</v>
       </c>
       <c r="Y68" t="n">
-        <v>261.4</v>
+        <v>261.5</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>1572.7(±261.4)</t>
+          <t>1564.4(±261.5)</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>2516</v>
+        <v>2555</v>
       </c>
       <c r="E70" t="n">
         <v>1971</v>
@@ -6862,13 +6862,13 @@
         <v>2172.8</v>
       </c>
       <c r="P70" t="n">
-        <v>415.4</v>
+        <v>454.4</v>
       </c>
       <c r="Q70" t="n">
         <v>72.2</v>
       </c>
       <c r="R70" t="n">
-        <v>19.8</v>
+        <v>21.6</v>
       </c>
       <c r="S70" t="n">
         <v>4</v>
@@ -6880,26 +6880,26 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>415.4 (±72.2)</t>
+          <t>454.4 (±72.2)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>19.8% (±4.0%)</t>
+          <t>21.6% (±4.0%)</t>
         </is>
       </c>
       <c r="W70" t="n">
         <v>20239</v>
       </c>
       <c r="X70" t="n">
-        <v>2052.5</v>
+        <v>2245.2</v>
       </c>
       <c r="Y70" t="n">
         <v>356.7</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2052.5(±356.7)</t>
+          <t>2245.2(±356.7)</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>61671</v>
+        <v>61741</v>
       </c>
       <c r="E74" t="n">
         <v>47710</v>
@@ -7230,16 +7230,16 @@
         <v>52473</v>
       </c>
       <c r="P74" t="n">
-        <v>10487.2</v>
+        <v>10557.2</v>
       </c>
       <c r="Q74" t="n">
         <v>1289.2</v>
       </c>
       <c r="R74" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="S74" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -7248,26 +7248,26 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>10487.2 (±1289.2)</t>
+          <t>10557.2 (±1289.2)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>20.5% (±3.0%)</t>
+          <t>20.6% (±2.9%)</t>
         </is>
       </c>
       <c r="W74" t="n">
         <v>661456</v>
       </c>
       <c r="X74" t="n">
-        <v>1585.5</v>
+        <v>1596.1</v>
       </c>
       <c r="Y74" t="n">
         <v>194.9</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>1585.5(±194.9)</t>
+          <t>1596.1(±194.9)</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>19887</v>
+        <v>19896</v>
       </c>
       <c r="E76" t="n">
         <v>17231</v>
@@ -7414,7 +7414,7 @@
         <v>17456.9</v>
       </c>
       <c r="P76" t="n">
-        <v>2723.2</v>
+        <v>2732.2</v>
       </c>
       <c r="Q76" t="n">
         <v>293.1</v>
@@ -7423,7 +7423,7 @@
         <v>15.9</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -7432,26 +7432,26 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>2723.2 (±293.1)</t>
+          <t>2732.2 (±293.1)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>15.9% (±2.0%)</t>
+          <t>15.9% (±1.9%)</t>
         </is>
       </c>
       <c r="W76" t="n">
         <v>179513</v>
       </c>
       <c r="X76" t="n">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="Y76" t="n">
         <v>163.3</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>1517.0(±163.3)</t>
+          <t>1522.0(±163.3)</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>263606</v>
+        <v>263609</v>
       </c>
       <c r="E78" t="n">
         <v>204317</v>
@@ -7598,7 +7598,7 @@
         <v>209959.5</v>
       </c>
       <c r="P78" t="n">
-        <v>54896</v>
+        <v>54899</v>
       </c>
       <c r="Q78" t="n">
         <v>1249.5</v>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>54896.0 (±1249.5)</t>
+          <t>54899.0 (±1249.5)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -7628,14 +7628,14 @@
         <v>2880884</v>
       </c>
       <c r="X78" t="n">
-        <v>1905.5</v>
+        <v>1905.6</v>
       </c>
       <c r="Y78" t="n">
         <v>43.4</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>1905.5(±43.4)</t>
+          <t>1905.6(±43.4)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(80-84) - (90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(80-84) - (90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -1582,7 +1582,7 @@
         <v>2020</v>
       </c>
       <c r="D13" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E13" t="n">
         <v>576</v>
@@ -1618,13 +1618,13 @@
         <v>591.9000000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.8</v>
+        <v>-4.8</v>
       </c>
       <c r="Q13" t="n">
         <v>12.1</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="S13" t="n">
         <v>2.1</v>
@@ -1636,26 +1636,26 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-7.8 (±12.1)</t>
+          <t>-4.8 (±12.1)</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-1.3% (±2.1%)</t>
+          <t>-0.8% (±2.1%)</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>7170</v>
       </c>
       <c r="X13" t="n">
-        <v>-108.8</v>
+        <v>-66.90000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.8</v>
+        <v>168.7</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-108.8(±168.8)</t>
+          <t>-66.9(±168.7)</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E39" t="n">
         <v>461</v>
@@ -4010,13 +4010,13 @@
         <v>497.3</v>
       </c>
       <c r="P39" t="n">
-        <v>-40</v>
+        <v>-35</v>
       </c>
       <c r="Q39" t="n">
         <v>21.3</v>
       </c>
       <c r="R39" t="n">
-        <v>-8.4</v>
+        <v>-7.4</v>
       </c>
       <c r="S39" t="n">
         <v>3.9</v>
@@ -4028,26 +4028,26 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-40.0 (±21.3)</t>
+          <t>-35.0 (±21.3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-8.4% (±3.9%)</t>
+          <t>-7.4% (±3.9%)</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>5259</v>
       </c>
       <c r="X39" t="n">
-        <v>-760.6</v>
+        <v>-665.5</v>
       </c>
       <c r="Y39" t="n">
         <v>405</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>-760.6(±405.0)</t>
+          <t>-665.5(±405.0)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="E65" t="n">
         <v>1037</v>
@@ -6402,16 +6402,16 @@
         <v>1081.3</v>
       </c>
       <c r="P65" t="n">
-        <v>-47.8</v>
+        <v>-39.8</v>
       </c>
       <c r="Q65" t="n">
         <v>25.5</v>
       </c>
       <c r="R65" t="n">
-        <v>-4.5</v>
+        <v>-3.8</v>
       </c>
       <c r="S65" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6420,26 +6420,26 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>-47.8 (±25.5)</t>
+          <t>-39.8 (±25.5)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>-4.5% (±2.3%)</t>
+          <t>-3.8% (±2.2%)</t>
         </is>
       </c>
       <c r="W65" t="n">
         <v>12429</v>
       </c>
       <c r="X65" t="n">
-        <v>-384.6</v>
+        <v>-320.2</v>
       </c>
       <c r="Y65" t="n">
-        <v>205.2</v>
+        <v>205.1</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>-384.6(±205.2)</t>
+          <t>-320.2(±205.1)</t>
         </is>
       </c>
     </row>
